--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>185592</v>
+        <v>186905.2378535629</v>
       </c>
       <c r="C2">
-        <v>269192</v>
+        <v>270692.0082220492</v>
       </c>
       <c r="D2">
-        <v>314754</v>
+        <v>316615.9125991673</v>
       </c>
       <c r="E2">
-        <v>340288</v>
+        <v>341685.7923241028</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>224665</v>
+        <v>225589.0428697771</v>
       </c>
       <c r="C3">
-        <v>322506</v>
+        <v>324105.1694103569</v>
       </c>
       <c r="D3">
-        <v>372645</v>
+        <v>374223.0364166843</v>
       </c>
       <c r="E3">
-        <v>404424</v>
+        <v>406075.1521679345</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>200739</v>
+        <v>201837.4126201456</v>
       </c>
       <c r="C4">
-        <v>299166</v>
+        <v>300183.4273028397</v>
       </c>
       <c r="D4">
-        <v>352893</v>
+        <v>354764.2568935911</v>
       </c>
       <c r="E4">
-        <v>386036</v>
+        <v>387876.1150343845</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>154560</v>
+        <v>155461.7400494977</v>
       </c>
       <c r="C5">
-        <v>218862</v>
+        <v>219824.0359814948</v>
       </c>
       <c r="D5">
-        <v>245364</v>
+        <v>246941.4811182787</v>
       </c>
       <c r="E5">
-        <v>269082</v>
+        <v>269836.3495078803</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>135707</v>
+        <v>136799.3467250086</v>
       </c>
       <c r="C6">
-        <v>192049</v>
+        <v>192871.4579951396</v>
       </c>
       <c r="D6">
-        <v>217646</v>
+        <v>218722.8431517391</v>
       </c>
       <c r="E6">
-        <v>235294</v>
+        <v>236088.0884004034</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14640</v>
+        <v>14680.21837589119</v>
       </c>
       <c r="C7">
-        <v>20385</v>
+        <v>20472.16157971784</v>
       </c>
       <c r="D7">
-        <v>23190</v>
+        <v>23277.72962016289</v>
       </c>
       <c r="E7">
-        <v>24915</v>
+        <v>24999.89046343153</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>700373</v>
+        <v>705790.8995429344</v>
       </c>
       <c r="C8">
-        <v>1028352</v>
+        <v>1030532.188057253</v>
       </c>
       <c r="D8">
-        <v>1223801</v>
+        <v>1228321.886109981</v>
       </c>
       <c r="E8">
-        <v>1326676</v>
+        <v>1334288.370835203</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>198378</v>
+        <v>199574.9481411248</v>
       </c>
       <c r="C9">
-        <v>279036</v>
+        <v>280516.8689190554</v>
       </c>
       <c r="D9">
-        <v>317034</v>
+        <v>318552.0189318091</v>
       </c>
       <c r="E9">
-        <v>342585</v>
+        <v>344320.9075828191</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>85260</v>
+        <v>85713.91477613166</v>
       </c>
       <c r="C10">
-        <v>116960</v>
+        <v>117482.5795151777</v>
       </c>
       <c r="D10">
-        <v>134676</v>
+        <v>134894.2441099987</v>
       </c>
       <c r="E10">
-        <v>142674</v>
+        <v>143118.8476537207</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15680</v>
+        <v>15753.17345700113</v>
       </c>
       <c r="C11">
-        <v>20430</v>
+        <v>20501.62131922366</v>
       </c>
       <c r="D11">
-        <v>23160</v>
+        <v>23275.28512089467</v>
       </c>
       <c r="E11">
-        <v>26560</v>
+        <v>26644.25059606339</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>37440</v>
+        <v>37561.3566018046</v>
       </c>
       <c r="C12">
-        <v>53640</v>
+        <v>53790.5576671302</v>
       </c>
       <c r="D12">
-        <v>61280</v>
+        <v>61465.97115054882</v>
       </c>
       <c r="E12">
-        <v>64194</v>
+        <v>64367.31937154969</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>47922</v>
+        <v>48170.31149808713</v>
       </c>
       <c r="C13">
-        <v>65184</v>
+        <v>65450.35971744604</v>
       </c>
       <c r="D13">
-        <v>75754</v>
+        <v>75873.65920812727</v>
       </c>
       <c r="E13">
-        <v>81144</v>
+        <v>81447.00824793526</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV_Fiets.xlsx
@@ -391,10 +391,10 @@
         <v>186905.2378535629</v>
       </c>
       <c r="C2">
-        <v>270692.0082220492</v>
+        <v>270692.0082220494</v>
       </c>
       <c r="D2">
-        <v>316615.9125991673</v>
+        <v>316615.9125991674</v>
       </c>
       <c r="E2">
         <v>341685.7923241028</v>
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>225589.0428697771</v>
+        <v>225589.042869777</v>
       </c>
       <c r="C3">
-        <v>324105.1694103569</v>
+        <v>324105.1694103567</v>
       </c>
       <c r="D3">
-        <v>374223.0364166843</v>
+        <v>374223.0364166845</v>
       </c>
       <c r="E3">
-        <v>406075.1521679345</v>
+        <v>406075.1521679348</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -425,13 +425,13 @@
         <v>201837.4126201456</v>
       </c>
       <c r="C4">
-        <v>300183.4273028397</v>
+        <v>300183.4273028398</v>
       </c>
       <c r="D4">
-        <v>354764.2568935911</v>
+        <v>354764.2568935912</v>
       </c>
       <c r="E4">
-        <v>387876.1150343845</v>
+        <v>387876.1150343847</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>155461.7400494977</v>
+        <v>155461.7400494978</v>
       </c>
       <c r="C5">
-        <v>219824.0359814948</v>
+        <v>219824.0359814949</v>
       </c>
       <c r="D5">
-        <v>246941.4811182787</v>
+        <v>246941.4811182786</v>
       </c>
       <c r="E5">
         <v>269836.3495078803</v>
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>136799.3467250086</v>
+        <v>136799.3467250087</v>
       </c>
       <c r="C6">
-        <v>192871.4579951396</v>
+        <v>192871.4579951398</v>
       </c>
       <c r="D6">
-        <v>218722.8431517391</v>
+        <v>218722.8431517389</v>
       </c>
       <c r="E6">
-        <v>236088.0884004034</v>
+        <v>236088.0884004035</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -476,13 +476,13 @@
         <v>14680.21837589119</v>
       </c>
       <c r="C7">
-        <v>20472.16157971784</v>
+        <v>20472.16157971785</v>
       </c>
       <c r="D7">
         <v>23277.72962016289</v>
       </c>
       <c r="E7">
-        <v>24999.89046343153</v>
+        <v>24999.89046343152</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>705790.8995429344</v>
+        <v>705790.8995429338</v>
       </c>
       <c r="C8">
         <v>1030532.188057253</v>
       </c>
       <c r="D8">
-        <v>1228321.886109981</v>
+        <v>1228321.886109982</v>
       </c>
       <c r="E8">
         <v>1334288.370835203</v>
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>199574.9481411248</v>
+        <v>199574.9481411247</v>
       </c>
       <c r="C9">
-        <v>280516.8689190554</v>
+        <v>280516.8689190556</v>
       </c>
       <c r="D9">
-        <v>318552.0189318091</v>
+        <v>318552.0189318093</v>
       </c>
       <c r="E9">
-        <v>344320.9075828191</v>
+        <v>344320.9075828193</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>85713.91477613166</v>
+        <v>85713.9147761317</v>
       </c>
       <c r="C10">
         <v>117482.5795151777</v>
       </c>
       <c r="D10">
-        <v>134894.2441099987</v>
+        <v>134894.2441099988</v>
       </c>
       <c r="E10">
-        <v>143118.8476537207</v>
+        <v>143118.8476537208</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15753.17345700113</v>
+        <v>15753.17345700114</v>
       </c>
       <c r="C11">
-        <v>20501.62131922366</v>
+        <v>20501.62131922367</v>
       </c>
       <c r="D11">
-        <v>23275.28512089467</v>
+        <v>23275.28512089469</v>
       </c>
       <c r="E11">
-        <v>26644.25059606339</v>
+        <v>26644.25059606338</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>37561.3566018046</v>
+        <v>37561.35660180459</v>
       </c>
       <c r="C12">
         <v>53790.5576671302</v>
       </c>
       <c r="D12">
-        <v>61465.97115054882</v>
+        <v>61465.97115054885</v>
       </c>
       <c r="E12">
-        <v>64367.31937154969</v>
+        <v>64367.31937154968</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>48170.31149808713</v>
+        <v>48170.31149808712</v>
       </c>
       <c r="C13">
         <v>65450.35971744604</v>
       </c>
       <c r="D13">
-        <v>75873.65920812727</v>
+        <v>75873.65920812728</v>
       </c>
       <c r="E13">
-        <v>81447.00824793526</v>
+        <v>81447.00824793524</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>186905.2378535629</v>
+        <v>186905</v>
       </c>
       <c r="C2">
-        <v>270692.0082220494</v>
+        <v>270692</v>
       </c>
       <c r="D2">
-        <v>316615.9125991674</v>
+        <v>316616</v>
       </c>
       <c r="E2">
-        <v>341685.7923241028</v>
+        <v>341686</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>225589.042869777</v>
+        <v>225589</v>
       </c>
       <c r="C3">
-        <v>324105.1694103567</v>
+        <v>324105</v>
       </c>
       <c r="D3">
-        <v>374223.0364166845</v>
+        <v>374223</v>
       </c>
       <c r="E3">
-        <v>406075.1521679348</v>
+        <v>406075</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>201837.4126201456</v>
+        <v>201837</v>
       </c>
       <c r="C4">
-        <v>300183.4273028398</v>
+        <v>300183</v>
       </c>
       <c r="D4">
-        <v>354764.2568935912</v>
+        <v>354764</v>
       </c>
       <c r="E4">
-        <v>387876.1150343847</v>
+        <v>387876</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>155461.7400494978</v>
+        <v>155462</v>
       </c>
       <c r="C5">
-        <v>219824.0359814949</v>
+        <v>219824</v>
       </c>
       <c r="D5">
-        <v>246941.4811182786</v>
+        <v>246941</v>
       </c>
       <c r="E5">
-        <v>269836.3495078803</v>
+        <v>269836</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>136799.3467250087</v>
+        <v>136799</v>
       </c>
       <c r="C6">
-        <v>192871.4579951398</v>
+        <v>192871</v>
       </c>
       <c r="D6">
-        <v>218722.8431517389</v>
+        <v>218723</v>
       </c>
       <c r="E6">
-        <v>236088.0884004035</v>
+        <v>236088</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14680.21837589119</v>
+        <v>14680</v>
       </c>
       <c r="C7">
-        <v>20472.16157971785</v>
+        <v>20472</v>
       </c>
       <c r="D7">
-        <v>23277.72962016289</v>
+        <v>23278</v>
       </c>
       <c r="E7">
-        <v>24999.89046343152</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>705790.8995429338</v>
+        <v>705791</v>
       </c>
       <c r="C8">
-        <v>1030532.188057253</v>
+        <v>1030532</v>
       </c>
       <c r="D8">
-        <v>1228321.886109982</v>
+        <v>1228322</v>
       </c>
       <c r="E8">
-        <v>1334288.370835203</v>
+        <v>1334288</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>199574.9481411247</v>
+        <v>199575</v>
       </c>
       <c r="C9">
-        <v>280516.8689190556</v>
+        <v>280517</v>
       </c>
       <c r="D9">
-        <v>318552.0189318093</v>
+        <v>318552</v>
       </c>
       <c r="E9">
-        <v>344320.9075828193</v>
+        <v>344321</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>85713.9147761317</v>
+        <v>85714</v>
       </c>
       <c r="C10">
-        <v>117482.5795151777</v>
+        <v>117483</v>
       </c>
       <c r="D10">
-        <v>134894.2441099988</v>
+        <v>134894</v>
       </c>
       <c r="E10">
-        <v>143118.8476537208</v>
+        <v>143119</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15753.17345700114</v>
+        <v>15753</v>
       </c>
       <c r="C11">
-        <v>20501.62131922367</v>
+        <v>20502</v>
       </c>
       <c r="D11">
-        <v>23275.28512089469</v>
+        <v>23275</v>
       </c>
       <c r="E11">
-        <v>26644.25059606338</v>
+        <v>26644</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>37561.35660180459</v>
+        <v>37561</v>
       </c>
       <c r="C12">
-        <v>53790.5576671302</v>
+        <v>53791</v>
       </c>
       <c r="D12">
-        <v>61465.97115054885</v>
+        <v>61466</v>
       </c>
       <c r="E12">
-        <v>64367.31937154968</v>
+        <v>64367</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>48170.31149808712</v>
+        <v>48170</v>
       </c>
       <c r="C13">
-        <v>65450.35971744604</v>
+        <v>65450</v>
       </c>
       <c r="D13">
-        <v>75873.65920812728</v>
+        <v>75874</v>
       </c>
       <c r="E13">
-        <v>81447.00824793524</v>
+        <v>81447</v>
       </c>
     </row>
   </sheetData>
